--- a/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/awareness_2b.xlsx
+++ b/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/awareness_2b.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3000" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="3660" yWindow="3000" windowWidth="26820" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -21,27 +21,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>During the first task, which of the two characters was consistently presented with POSITIVE images and words? 
-1 = BERGMITE (certainly)
-2 = BERGMITE (probably)
-3 = BERGMITE (guess)
-4 = GOLETT (guess)
-5 = GOLETT (probably)
-6 = GOLETT (certainly)
-Click the line, then confirm your choice by clicking the grey button below.</t>
+    <t>awareness_2b_question_text</t>
   </si>
   <si>
-    <t>During the first task, which of the two characters was consistently presented with NEGATIVE images and words? 
-1 = BERGMITE (certainly)
-2 = BERGMITE (probably)
-3 = BERGMITE (guess)
-4 = GOLETT (guess)
-5 = GOLETT (probably)
-6 = GOLETT (certainly)
-Click the line, then confirm your choice by clicking the grey button below.</t>
+    <t xml:space="preserve">Tijdens de eerste taak, welke van de twee figuren werd consistent gepresenteerd met POSITIEVE woorden of afbeeldingen? 
+1 = BERGMITE (zeker)
+2 = BERGMITE (waarschijnlijk)
+3 = BERGMITE (gok)
+4 = GOLETT (gok)
+5 = GOLETT (waarschijnlijk)
+6 = GOLETT (zeker)
+Klik op het antwoord naar keuze en bevestig het door op de grijze knop onderaan te drukken
+</t>
   </si>
   <si>
-    <t>awareness_2b_question_text</t>
+    <t>Tijdens de eerste taak, welke van de twee figuren werd consistent gepresenteerd met NEGATIEVE woorden of afbeeldingen? 
+1 = BERGMITE (zeker)
+2 = BERGMITE (waarschijnlijk)
+3 = BERGMITE (gok)
+4 = GOLETT (gok)
+5 = GOLETT (waarschijnlijk)
+6 = GOLETT (zeker)
+Klik op het antwoord naar keuze en bevestig het door op de grijze knop onderaan te drukken.</t>
   </si>
 </sst>
 </file>
@@ -570,24 +571,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -891,7 +892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,26 +902,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="195" customHeight="1">
-      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="198" customHeight="1">
+    <row r="2" spans="1:1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
